--- a/Pop*/manuscripts/IdentifyKeyFromMelody/results.xlsx
+++ b/Pop*/manuscripts/IdentifyKeyFromMelody/results.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norkish/git/pop-star/Pop*/manuscripts/IdentifyKeyFromMelody/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9061494-C8B1-384E-B94E-623154D9E98F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="326">
   <si>
     <t>Key accuracy</t>
   </si>
@@ -983,13 +989,28 @@
   </si>
   <si>
     <t>unweighted</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1013,6 +1034,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1022,12 +1051,41 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1096,8 +1154,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1166,11 +1246,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1256,44 +1344,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.240232125787488</c:v>
+                  <c:v>0.24023212578748801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00194190833891569</c:v>
+                  <c:v>1.94190833891569E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1304616172032</c:v>
+                  <c:v>0.13046161720319999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0242588006834313</c:v>
+                  <c:v>2.4258800683431302E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.159040787601893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0752828186272665</c:v>
+                  <c:v>7.5282818627266504E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00273974664870276</c:v>
+                  <c:v>2.7397466487027598E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.169247096545962</c:v>
+                  <c:v>0.16924709654596201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00537411842630156</c:v>
+                  <c:v>5.3741184263015598E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.128670244394433</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0257189953258717</c:v>
+                  <c:v>2.5718995325871699E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0370317404165318</c:v>
+                  <c:v>3.7031740416531803E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E441-C046-AB1A-EBD31794F630}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1361,44 +1454,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.209112201157806</c:v>
+                  <c:v>0.20911220115780599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00187812099518317</c:v>
+                  <c:v>1.8781209951831701E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.151464934376242</c:v>
+                  <c:v>0.15146493437624201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00852887887224358</c:v>
+                  <c:v>8.5288788722435796E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16739581952362</c:v>
+                  <c:v>0.16739581952362001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0280613372221485</c:v>
+                  <c:v>2.80613372221485E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00850678333112378</c:v>
+                  <c:v>8.5067833311237798E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.116266737372398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00424234389500198</c:v>
+                  <c:v>4.2423438950019796E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.227827124486278</c:v>
+                  <c:v>0.22782712448627801</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0022537451942198</c:v>
+                  <c:v>2.2537451942198001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0744619735737328</c:v>
+                  <c:v>7.4461973573732798E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E441-C046-AB1A-EBD31794F630}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1419,6 +1517,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1453,7 +1552,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1486,14 +1584,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1579,44 +1677,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.282629148467903</c:v>
+                  <c:v>0.28262914846790299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00113148131053771</c:v>
+                  <c:v>1.1314813105377101E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.139803955386915</c:v>
+                  <c:v>0.13980395538691501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0183691316578324</c:v>
+                  <c:v>1.83691316578324E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.158278149985343</c:v>
+                  <c:v>0.15827814998534301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.064774643028922</c:v>
+                  <c:v>6.4774643028921997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00300443572091396</c:v>
+                  <c:v>3.0044357209139598E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.171935563015901</c:v>
+                  <c:v>0.17193556301590099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00313306191061512</c:v>
+                  <c:v>3.1330619106151201E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.10421632358252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0138981063568949</c:v>
+                  <c:v>1.3898106356894899E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0388259995756995</c:v>
+                  <c:v>3.8825999575699502E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4699-E943-B6F2-5E00CA08A2F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1684,44 +1787,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.191515350823151</c:v>
+                  <c:v>0.19151535082315099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00184971976567992</c:v>
+                  <c:v>1.84971976567992E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.122055139921308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00565795368200122</c:v>
+                  <c:v>5.6579536820012197E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.194483575868049</c:v>
+                  <c:v>0.19448357586804901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.021305298028282</c:v>
+                  <c:v>2.1305298028281999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00582657959815809</c:v>
+                  <c:v>5.82657959815809E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.108117621472804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00411191122033833</c:v>
+                  <c:v>4.1119112203383303E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.283325974557179</c:v>
+                  <c:v>0.28332597455717901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00157649628059868</c:v>
+                  <c:v>1.5764962805986801E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0601743787824477</c:v>
+                  <c:v>6.0174378782447698E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4699-E943-B6F2-5E00CA08A2F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1742,6 +1850,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1776,7 +1885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1790,7 +1898,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1804,14 +1911,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1840,7 +1947,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1853,6 +1959,13 @@
           <c:order val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
@@ -1860,6 +1973,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1948,80 +2064,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEF5-0741-AD80-F12D28D33AE6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2046,7 +2167,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2069,7 +2190,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2099,7 +2226,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2134,7 +2267,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2473,21 +2612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:20">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>285</v>
       </c>
@@ -2506,7 +2645,7 @@
         <v>0.20208333333299999</v>
       </c>
     </row>
-    <row r="5" spans="3:20">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>286</v>
       </c>
@@ -2517,7 +2656,7 @@
         <v>0.48333333333299999</v>
       </c>
     </row>
-    <row r="6" spans="3:20">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -2528,12 +2667,12 @@
         <v>0.74583333333299995</v>
       </c>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>287</v>
       </c>
@@ -2580,7 +2719,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>312</v>
       </c>
@@ -2634,7 +2773,7 @@
         <v>0.99999999999999745</v>
       </c>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>313</v>
       </c>
@@ -2688,7 +2827,7 @@
         <v>0.999999999999997</v>
       </c>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -2699,7 +2838,7 @@
         <v>0.89583333333299997</v>
       </c>
     </row>
-    <row r="12" spans="3:20">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>315</v>
       </c>
@@ -2710,7 +2849,7 @@
         <v>0.88541666666700003</v>
       </c>
     </row>
-    <row r="14" spans="3:20">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -2724,7 +2863,7 @@
         <v>0.66041666666700005</v>
       </c>
     </row>
-    <row r="15" spans="3:20">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2874,7 @@
         <v>0.66458333333300001</v>
       </c>
     </row>
-    <row r="16" spans="3:20">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>288</v>
       </c>
@@ -2773,7 +2912,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="7:19">
+    <row r="17" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>316</v>
       </c>
@@ -2814,7 +2953,7 @@
         <v>3.7031740416531803E-2</v>
       </c>
     </row>
-    <row r="18" spans="7:19">
+    <row r="18" spans="7:19" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>317</v>
       </c>
@@ -2868,21 +3007,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH314"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:AG313"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="AH320" sqref="AH320"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D286" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="33" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +3029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:30">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +3037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:30">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2906,7 +3045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:30">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2914,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:30">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2922,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -2930,7 +3069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -3106,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -3114,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3122,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -3130,7 +3269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -3138,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>89</v>
       </c>
@@ -3146,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3154,7 +3293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -3162,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -3170,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -3186,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -3194,7 +3333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -3202,7 +3341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>220</v>
       </c>
@@ -3210,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>168</v>
       </c>
@@ -3218,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -3226,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -3234,7 +3373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>27</v>
       </c>
@@ -3242,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -3250,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -3258,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>31</v>
       </c>
@@ -3266,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -3274,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -3282,7 +3421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -3290,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -3298,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>36</v>
       </c>
@@ -3306,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -3322,7 +3461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>268</v>
       </c>
@@ -3330,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -3338,7 +3477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -3346,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -3354,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>100</v>
       </c>
@@ -3362,7 +3501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -3370,7 +3509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>45</v>
       </c>
@@ -3378,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>269</v>
       </c>
@@ -3386,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -3394,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>47</v>
       </c>
@@ -3402,7 +3541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>48</v>
       </c>
@@ -3410,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>49</v>
       </c>
@@ -3418,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>50</v>
       </c>
@@ -3426,7 +3565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>52</v>
       </c>
@@ -3434,7 +3573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>53</v>
       </c>
@@ -3442,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -3450,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>270</v>
       </c>
@@ -3458,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>55</v>
       </c>
@@ -3466,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>56</v>
       </c>
@@ -3474,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>39</v>
       </c>
@@ -3482,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +3629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>59</v>
       </c>
@@ -3498,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>60</v>
       </c>
@@ -3506,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>61</v>
       </c>
@@ -3514,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -3522,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -3538,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>65</v>
       </c>
@@ -3546,7 +3685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>66</v>
       </c>
@@ -3554,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>67</v>
       </c>
@@ -3562,7 +3701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>271</v>
       </c>
@@ -3570,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>68</v>
       </c>
@@ -3578,7 +3717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>69</v>
       </c>
@@ -3586,7 +3725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>70</v>
       </c>
@@ -3594,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>71</v>
       </c>
@@ -3602,7 +3741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>58</v>
       </c>
@@ -3610,7 +3749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>72</v>
       </c>
@@ -3618,7 +3757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>73</v>
       </c>
@@ -3626,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>74</v>
       </c>
@@ -3634,7 +3773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>75</v>
       </c>
@@ -3642,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>76</v>
       </c>
@@ -3650,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>77</v>
       </c>
@@ -3658,7 +3797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>78</v>
       </c>
@@ -3666,7 +3805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>79</v>
       </c>
@@ -3674,7 +3813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>80</v>
       </c>
@@ -3682,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>81</v>
       </c>
@@ -3690,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>82</v>
       </c>
@@ -3698,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>83</v>
       </c>
@@ -3706,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>84</v>
       </c>
@@ -3714,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>85</v>
       </c>
@@ -3722,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>86</v>
       </c>
@@ -3730,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>87</v>
       </c>
@@ -3738,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>88</v>
       </c>
@@ -3746,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>90</v>
       </c>
@@ -3754,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>91</v>
       </c>
@@ -3762,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -3770,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>93</v>
       </c>
@@ -3778,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>94</v>
       </c>
@@ -3786,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>95</v>
       </c>
@@ -3794,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>96</v>
       </c>
@@ -3802,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>97</v>
       </c>
@@ -3810,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>98</v>
       </c>
@@ -3818,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>99</v>
       </c>
@@ -3826,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>248</v>
       </c>
@@ -3834,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>102</v>
       </c>
@@ -3842,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>196</v>
       </c>
@@ -3850,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>104</v>
       </c>
@@ -3858,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>105</v>
       </c>
@@ -3866,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>106</v>
       </c>
@@ -3874,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>107</v>
       </c>
@@ -3882,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>108</v>
       </c>
@@ -3890,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>247</v>
       </c>
@@ -3898,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>109</v>
       </c>
@@ -3906,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>110</v>
       </c>
@@ -3914,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>111</v>
       </c>
@@ -3922,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>249</v>
       </c>
@@ -3930,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>112</v>
       </c>
@@ -3938,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>113</v>
       </c>
@@ -3946,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>114</v>
       </c>
@@ -3954,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>115</v>
       </c>
@@ -3962,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>116</v>
       </c>
@@ -3970,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>117</v>
       </c>
@@ -3978,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>118</v>
       </c>
@@ -3986,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>119</v>
       </c>
@@ -3994,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>272</v>
       </c>
@@ -4002,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>121</v>
       </c>
@@ -4010,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>122</v>
       </c>
@@ -4018,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>123</v>
       </c>
@@ -4026,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>124</v>
       </c>
@@ -4034,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>273</v>
       </c>
@@ -4042,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>274</v>
       </c>
@@ -4050,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>184</v>
       </c>
@@ -4058,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>127</v>
       </c>
@@ -4066,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>128</v>
       </c>
@@ -4074,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>129</v>
       </c>
@@ -4082,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -4090,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -4098,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -4106,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>275</v>
       </c>
@@ -4114,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>133</v>
       </c>
@@ -4122,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>134</v>
       </c>
@@ -4130,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>223</v>
       </c>
@@ -4138,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>135</v>
       </c>
@@ -4146,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>136</v>
       </c>
@@ -4154,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>137</v>
       </c>
@@ -4162,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>138</v>
       </c>
@@ -4170,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>139</v>
       </c>
@@ -4178,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>140</v>
       </c>
@@ -4186,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>141</v>
       </c>
@@ -4194,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>142</v>
       </c>
@@ -4202,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>143</v>
       </c>
@@ -4210,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>144</v>
       </c>
@@ -4218,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>276</v>
       </c>
@@ -4226,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>145</v>
       </c>
@@ -4234,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>146</v>
       </c>
@@ -4242,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>277</v>
       </c>
@@ -4250,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>147</v>
       </c>
@@ -4258,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>148</v>
       </c>
@@ -4266,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>278</v>
       </c>
@@ -4274,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>149</v>
       </c>
@@ -4282,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>150</v>
       </c>
@@ -4290,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>151</v>
       </c>
@@ -4298,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>152</v>
       </c>
@@ -4306,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>153</v>
       </c>
@@ -4314,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>154</v>
       </c>
@@ -4322,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>155</v>
       </c>
@@ -4330,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>156</v>
       </c>
@@ -4338,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>157</v>
       </c>
@@ -4346,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>158</v>
       </c>
@@ -4354,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>159</v>
       </c>
@@ -4362,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>160</v>
       </c>
@@ -4370,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>161</v>
       </c>
@@ -4378,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>162</v>
       </c>
@@ -4386,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>163</v>
       </c>
@@ -4394,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>164</v>
       </c>
@@ -4402,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>165</v>
       </c>
@@ -4410,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>166</v>
       </c>
@@ -4418,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>167</v>
       </c>
@@ -4426,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>169</v>
       </c>
@@ -4434,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>126</v>
       </c>
@@ -4442,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>171</v>
       </c>
@@ -4450,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>172</v>
       </c>
@@ -4458,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>173</v>
       </c>
@@ -4466,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>174</v>
       </c>
@@ -4474,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>175</v>
       </c>
@@ -4482,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>177</v>
       </c>
@@ -4490,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>279</v>
       </c>
@@ -4498,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>178</v>
       </c>
@@ -4506,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>179</v>
       </c>
@@ -4514,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>180</v>
       </c>
@@ -4522,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>181</v>
       </c>
@@ -4530,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>182</v>
       </c>
@@ -4538,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>240</v>
       </c>
@@ -4546,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>280</v>
       </c>
@@ -4554,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>185</v>
       </c>
@@ -4562,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>186</v>
       </c>
@@ -4570,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>188</v>
       </c>
@@ -4578,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>189</v>
       </c>
@@ -4586,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>190</v>
       </c>
@@ -4594,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:3">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>191</v>
       </c>
@@ -4602,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:3">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>192</v>
       </c>
@@ -4610,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>183</v>
       </c>
@@ -4618,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>193</v>
       </c>
@@ -4626,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:3">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>194</v>
       </c>
@@ -4634,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>195</v>
       </c>
@@ -4642,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>125</v>
       </c>
@@ -4650,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>197</v>
       </c>
@@ -4658,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:3">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>198</v>
       </c>
@@ -4666,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>199</v>
       </c>
@@ -4674,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>200</v>
       </c>
@@ -4682,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>201</v>
       </c>
@@ -4690,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>187</v>
       </c>
@@ -4698,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>202</v>
       </c>
@@ -4706,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>203</v>
       </c>
@@ -4714,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>281</v>
       </c>
@@ -4722,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>204</v>
       </c>
@@ -4730,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>205</v>
       </c>
@@ -4738,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>206</v>
       </c>
@@ -4746,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>207</v>
       </c>
@@ -4754,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>208</v>
       </c>
@@ -4762,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>209</v>
       </c>
@@ -4770,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>210</v>
       </c>
@@ -4778,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>211</v>
       </c>
@@ -4786,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>212</v>
       </c>
@@ -4794,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>213</v>
       </c>
@@ -4802,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>214</v>
       </c>
@@ -4810,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>215</v>
       </c>
@@ -4818,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:3">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>282</v>
       </c>
@@ -4826,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:3">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>217</v>
       </c>
@@ -4834,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:3">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>218</v>
       </c>
@@ -4842,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:3">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>219</v>
       </c>
@@ -4850,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:3">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>221</v>
       </c>
@@ -4858,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:3">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>222</v>
       </c>
@@ -4866,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:3">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>224</v>
       </c>
@@ -4874,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:3">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>225</v>
       </c>
@@ -4882,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:3">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
         <v>226</v>
       </c>
@@ -4890,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:3">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>227</v>
       </c>
@@ -4898,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:3">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>228</v>
       </c>
@@ -4906,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:3">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>229</v>
       </c>
@@ -4914,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:3">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>230</v>
       </c>
@@ -4922,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:3">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>231</v>
       </c>
@@ -4930,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:3">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>232</v>
       </c>
@@ -4938,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:3">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>101</v>
       </c>
@@ -4946,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:3">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>120</v>
       </c>
@@ -4954,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:3">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>234</v>
       </c>
@@ -4962,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:3">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>235</v>
       </c>
@@ -4970,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:3">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>236</v>
       </c>
@@ -4978,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:3">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>237</v>
       </c>
@@ -4986,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:3">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>238</v>
       </c>
@@ -4994,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>239</v>
       </c>
@@ -5002,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:3">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>241</v>
       </c>
@@ -5010,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>242</v>
       </c>
@@ -5018,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:3">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>243</v>
       </c>
@@ -5026,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:3">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>244</v>
       </c>
@@ -5034,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:3">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>216</v>
       </c>
@@ -5042,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:3">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>245</v>
       </c>
@@ -5050,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:3">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>246</v>
       </c>
@@ -5058,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>283</v>
       </c>
@@ -5066,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:3">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>284</v>
       </c>
@@ -5074,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:3">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
         <v>176</v>
       </c>
@@ -5082,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:3">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>250</v>
       </c>
@@ -5090,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:3">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
         <v>251</v>
       </c>
@@ -5098,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:3">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>252</v>
       </c>
@@ -5106,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:3">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>253</v>
       </c>
@@ -5114,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:3">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>254</v>
       </c>
@@ -5122,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:3">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>255</v>
       </c>
@@ -5130,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>170</v>
       </c>
@@ -5138,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:3">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>256</v>
       </c>
@@ -5146,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:3">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>257</v>
       </c>
@@ -5154,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>258</v>
       </c>
@@ -5162,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:3">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>259</v>
       </c>
@@ -5170,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:3">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>260</v>
       </c>
@@ -5178,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:3">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>103</v>
       </c>
@@ -5186,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:3">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>233</v>
       </c>
@@ -5194,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:3">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>261</v>
       </c>
@@ -5202,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:3">
+    <row r="273" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>262</v>
       </c>
@@ -5210,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:3">
+    <row r="274" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>263</v>
       </c>
@@ -5218,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:3">
+    <row r="275" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>264</v>
       </c>
@@ -5226,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:3">
+    <row r="276" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>265</v>
       </c>
@@ -5234,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:3">
+    <row r="277" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>266</v>
       </c>
@@ -5242,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:3">
+    <row r="278" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>267</v>
       </c>
@@ -5250,2045 +5389,2073 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:3">
+    <row r="279" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C279">
         <f>SUM(C1:C278)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="9:34">
-      <c r="J289" t="s">
+    <row r="287" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="7"/>
+      <c r="N287" s="7"/>
+      <c r="O287" s="7"/>
+      <c r="P287" s="7"/>
+      <c r="Q287" s="7"/>
+      <c r="R287" s="7"/>
+      <c r="S287" s="7"/>
+      <c r="T287" s="7"/>
+      <c r="U287" s="7"/>
+      <c r="V287" s="7"/>
+      <c r="W287" s="7"/>
+      <c r="X287" s="7"/>
+      <c r="Y287" s="7"/>
+      <c r="Z287" s="7"/>
+      <c r="AA287" s="7"/>
+      <c r="AB287" s="7"/>
+      <c r="AC287" s="7"/>
+      <c r="AD287" s="7"/>
+      <c r="AE287" s="7"/>
+      <c r="AF287" s="7"/>
+      <c r="AG287" s="7"/>
+    </row>
+    <row r="288" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="7"/>
+      <c r="N288" s="7"/>
+      <c r="O288" s="7"/>
+      <c r="P288" s="7"/>
+      <c r="Q288" s="7"/>
+      <c r="R288" s="7"/>
+      <c r="S288" s="7"/>
+      <c r="T288" s="7"/>
+      <c r="U288" s="8"/>
+      <c r="V288" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="W288" s="7"/>
+      <c r="X288" s="7"/>
+      <c r="Y288" s="7"/>
+      <c r="Z288" s="7"/>
+      <c r="AA288" s="7"/>
+      <c r="AB288" s="7"/>
+      <c r="AC288" s="7"/>
+      <c r="AD288" s="7"/>
+      <c r="AE288" s="7"/>
+      <c r="AF288" s="7"/>
+      <c r="AG288" s="7"/>
+    </row>
+    <row r="289" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K289" t="s">
+      <c r="K289" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="L289" t="s">
+      <c r="L289" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="N289" t="s">
+      <c r="N289" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="O289" t="s">
+      <c r="O289" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="P289" t="s">
+      <c r="P289" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="Q289" t="s">
+      <c r="Q289" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="R289" t="s">
+      <c r="R289" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="S289" t="s">
+      <c r="S289" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="T289" t="s">
+      <c r="T289" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="U289" t="s">
+      <c r="U289" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="V289" t="s">
+      <c r="V289" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="W289" t="s">
+      <c r="W289" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="X289" t="s">
+      <c r="X289" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Y289" t="s">
+      <c r="Y289" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="Z289" t="s">
+      <c r="Z289" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AA289" t="s">
+      <c r="AA289" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AB289" t="s">
+      <c r="AB289" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AC289" t="s">
+      <c r="AC289" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AD289" t="s">
+      <c r="AD289" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AE289" t="s">
+      <c r="AE289" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="AF289" t="s">
+      <c r="AF289" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AG289" t="s">
+      <c r="AG289" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="290" spans="9:34">
-      <c r="I290" t="s">
+    <row r="290" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G290" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H290" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J290">
+      <c r="J290" s="1">
         <v>57</v>
       </c>
-      <c r="K290">
-        <v>0</v>
-      </c>
-      <c r="L290">
-        <v>0</v>
-      </c>
-      <c r="M290">
-        <v>0</v>
-      </c>
-      <c r="N290">
-        <v>0</v>
-      </c>
-      <c r="O290">
+      <c r="K290" s="1">
+        <v>0</v>
+      </c>
+      <c r="L290" s="1">
+        <v>0</v>
+      </c>
+      <c r="M290" s="1">
+        <v>0</v>
+      </c>
+      <c r="N290" s="1">
+        <v>0</v>
+      </c>
+      <c r="O290" s="1">
         <v>2</v>
       </c>
-      <c r="P290">
-        <v>0</v>
-      </c>
-      <c r="Q290">
+      <c r="P290" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q290" s="1">
         <v>3</v>
       </c>
-      <c r="R290">
-        <v>0</v>
-      </c>
-      <c r="S290">
-        <v>0</v>
-      </c>
-      <c r="T290">
-        <v>0</v>
-      </c>
-      <c r="U290">
-        <v>0</v>
-      </c>
-      <c r="V290">
+      <c r="R290" s="1">
+        <v>0</v>
+      </c>
+      <c r="S290" s="1">
+        <v>0</v>
+      </c>
+      <c r="T290" s="1">
+        <v>0</v>
+      </c>
+      <c r="U290" s="3">
+        <v>0</v>
+      </c>
+      <c r="V290" s="1">
         <v>6</v>
       </c>
-      <c r="W290">
-        <v>0</v>
-      </c>
-      <c r="X290">
-        <v>0</v>
-      </c>
-      <c r="Y290">
-        <v>0</v>
-      </c>
-      <c r="Z290">
-        <v>0</v>
-      </c>
-      <c r="AA290">
-        <v>1</v>
-      </c>
-      <c r="AB290">
-        <v>0</v>
-      </c>
-      <c r="AC290">
-        <v>0</v>
-      </c>
-      <c r="AD290">
-        <v>0</v>
-      </c>
-      <c r="AE290">
-        <v>0</v>
-      </c>
-      <c r="AF290">
-        <v>0</v>
-      </c>
-      <c r="AG290">
-        <v>0</v>
-      </c>
-      <c r="AH290">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="291" spans="9:34">
-      <c r="I291" t="s">
+      <c r="W290" s="1">
+        <v>0</v>
+      </c>
+      <c r="X290" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y290" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA290" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF290" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
+      <c r="I291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J291">
-        <v>0</v>
-      </c>
-      <c r="K291">
+      <c r="J291" s="1">
+        <v>0</v>
+      </c>
+      <c r="K291" s="1">
         <v>9</v>
       </c>
-      <c r="L291">
-        <v>0</v>
-      </c>
-      <c r="M291">
-        <v>0</v>
-      </c>
-      <c r="N291">
-        <v>0</v>
-      </c>
-      <c r="O291">
-        <v>0</v>
-      </c>
-      <c r="P291">
-        <v>0</v>
-      </c>
-      <c r="Q291">
-        <v>0</v>
-      </c>
-      <c r="R291">
-        <v>0</v>
-      </c>
-      <c r="S291">
-        <v>0</v>
-      </c>
-      <c r="T291">
-        <v>0</v>
-      </c>
-      <c r="U291">
-        <v>0</v>
-      </c>
-      <c r="V291">
-        <v>0</v>
-      </c>
-      <c r="W291">
+      <c r="L291" s="1">
+        <v>0</v>
+      </c>
+      <c r="M291" s="1">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1">
+        <v>0</v>
+      </c>
+      <c r="O291" s="1">
+        <v>0</v>
+      </c>
+      <c r="P291" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q291" s="1">
+        <v>0</v>
+      </c>
+      <c r="R291" s="1">
+        <v>0</v>
+      </c>
+      <c r="S291" s="1">
+        <v>0</v>
+      </c>
+      <c r="T291" s="1">
+        <v>0</v>
+      </c>
+      <c r="U291" s="3">
+        <v>0</v>
+      </c>
+      <c r="V291" s="1">
+        <v>0</v>
+      </c>
+      <c r="W291" s="1">
         <v>3</v>
       </c>
-      <c r="X291">
-        <v>0</v>
-      </c>
-      <c r="Y291">
-        <v>0</v>
-      </c>
-      <c r="Z291">
-        <v>0</v>
-      </c>
-      <c r="AA291">
-        <v>0</v>
-      </c>
-      <c r="AB291">
-        <v>0</v>
-      </c>
-      <c r="AC291">
-        <v>0</v>
-      </c>
-      <c r="AD291">
-        <v>0</v>
-      </c>
-      <c r="AE291">
-        <v>0</v>
-      </c>
-      <c r="AF291">
-        <v>0</v>
-      </c>
-      <c r="AG291">
-        <v>0</v>
-      </c>
-      <c r="AH291">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="9:34">
-      <c r="I292" t="s">
+      <c r="X291" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y291" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF291" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J292">
-        <v>0</v>
-      </c>
-      <c r="K292">
-        <v>0</v>
-      </c>
-      <c r="L292">
+      <c r="J292" s="1">
+        <v>0</v>
+      </c>
+      <c r="K292" s="1">
+        <v>0</v>
+      </c>
+      <c r="L292" s="1">
         <v>26</v>
       </c>
-      <c r="M292">
-        <v>0</v>
-      </c>
-      <c r="N292">
-        <v>0</v>
-      </c>
-      <c r="O292">
-        <v>0</v>
-      </c>
-      <c r="P292">
-        <v>0</v>
-      </c>
-      <c r="Q292">
+      <c r="M292" s="1">
+        <v>0</v>
+      </c>
+      <c r="N292" s="1">
+        <v>0</v>
+      </c>
+      <c r="O292" s="1">
+        <v>0</v>
+      </c>
+      <c r="P292" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q292" s="1">
         <v>2</v>
       </c>
-      <c r="R292">
-        <v>0</v>
-      </c>
-      <c r="S292">
-        <v>1</v>
-      </c>
-      <c r="T292">
-        <v>0</v>
-      </c>
-      <c r="U292">
-        <v>0</v>
-      </c>
-      <c r="V292">
-        <v>0</v>
-      </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
+      <c r="R292" s="1">
+        <v>0</v>
+      </c>
+      <c r="S292" s="1">
+        <v>1</v>
+      </c>
+      <c r="T292" s="1">
+        <v>0</v>
+      </c>
+      <c r="U292" s="3">
+        <v>0</v>
+      </c>
+      <c r="V292" s="1">
+        <v>0</v>
+      </c>
+      <c r="W292" s="1">
+        <v>0</v>
+      </c>
+      <c r="X292" s="1">
         <v>5</v>
       </c>
-      <c r="Y292">
-        <v>0</v>
-      </c>
-      <c r="Z292">
-        <v>0</v>
-      </c>
-      <c r="AA292">
-        <v>0</v>
-      </c>
-      <c r="AB292">
-        <v>0</v>
-      </c>
-      <c r="AC292">
-        <v>0</v>
-      </c>
-      <c r="AD292">
-        <v>0</v>
-      </c>
-      <c r="AE292">
-        <v>0</v>
-      </c>
-      <c r="AF292">
-        <v>0</v>
-      </c>
-      <c r="AG292">
-        <v>0</v>
-      </c>
-      <c r="AH292">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="293" spans="9:34">
-      <c r="I293" t="s">
+      <c r="Y292" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF292" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>322</v>
+      </c>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
+      <c r="I293" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293">
-        <v>0</v>
-      </c>
-      <c r="L293">
-        <v>0</v>
-      </c>
-      <c r="M293">
+      <c r="J293" s="1">
+        <v>0</v>
+      </c>
+      <c r="K293" s="1">
+        <v>0</v>
+      </c>
+      <c r="L293" s="1">
+        <v>0</v>
+      </c>
+      <c r="M293" s="1">
         <v>15</v>
       </c>
-      <c r="N293">
-        <v>0</v>
-      </c>
-      <c r="O293">
-        <v>0</v>
-      </c>
-      <c r="P293">
-        <v>0</v>
-      </c>
-      <c r="Q293">
-        <v>0</v>
-      </c>
-      <c r="R293">
-        <v>0</v>
-      </c>
-      <c r="S293">
-        <v>0</v>
-      </c>
-      <c r="T293">
-        <v>1</v>
-      </c>
-      <c r="U293">
-        <v>0</v>
-      </c>
-      <c r="V293">
-        <v>0</v>
-      </c>
-      <c r="W293">
-        <v>0</v>
-      </c>
-      <c r="X293">
-        <v>0</v>
-      </c>
-      <c r="Y293">
+      <c r="N293" s="1">
+        <v>0</v>
+      </c>
+      <c r="O293" s="1">
+        <v>0</v>
+      </c>
+      <c r="P293" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="1">
+        <v>0</v>
+      </c>
+      <c r="R293" s="1">
+        <v>0</v>
+      </c>
+      <c r="S293" s="1">
+        <v>0</v>
+      </c>
+      <c r="T293" s="1">
+        <v>1</v>
+      </c>
+      <c r="U293" s="3">
+        <v>0</v>
+      </c>
+      <c r="V293" s="1">
+        <v>0</v>
+      </c>
+      <c r="W293" s="1">
+        <v>0</v>
+      </c>
+      <c r="X293" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y293" s="1">
         <v>4</v>
       </c>
-      <c r="Z293">
-        <v>0</v>
-      </c>
-      <c r="AA293">
-        <v>0</v>
-      </c>
-      <c r="AB293">
-        <v>1</v>
-      </c>
-      <c r="AC293">
-        <v>0</v>
-      </c>
-      <c r="AD293">
-        <v>0</v>
-      </c>
-      <c r="AE293">
-        <v>0</v>
-      </c>
-      <c r="AF293">
-        <v>0</v>
-      </c>
-      <c r="AG293">
-        <v>0</v>
-      </c>
-      <c r="AH293">
+      <c r="Z293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF293" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
+      <c r="I294" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J294" s="1">
+        <v>0</v>
+      </c>
+      <c r="K294" s="1">
+        <v>0</v>
+      </c>
+      <c r="L294" s="1">
+        <v>0</v>
+      </c>
+      <c r="M294" s="1">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1">
+        <v>20</v>
+      </c>
+      <c r="O294" s="1">
+        <v>0</v>
+      </c>
+      <c r="P294" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="1">
+        <v>1</v>
+      </c>
+      <c r="R294" s="1">
+        <v>0</v>
+      </c>
+      <c r="S294" s="1">
+        <v>0</v>
+      </c>
+      <c r="T294" s="1">
+        <v>0</v>
+      </c>
+      <c r="U294" s="3">
+        <v>1</v>
+      </c>
+      <c r="V294" s="1">
+        <v>0</v>
+      </c>
+      <c r="W294" s="1">
+        <v>0</v>
+      </c>
+      <c r="X294" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y294" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z294" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA294" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC294" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD294" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE294" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF294" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
+      <c r="I295" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J295" s="1">
+        <v>0</v>
+      </c>
+      <c r="K295" s="1">
+        <v>0</v>
+      </c>
+      <c r="L295" s="1">
+        <v>0</v>
+      </c>
+      <c r="M295" s="1">
+        <v>1</v>
+      </c>
+      <c r="N295" s="1">
+        <v>0</v>
+      </c>
+      <c r="O295" s="1">
+        <v>40</v>
+      </c>
+      <c r="P295" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="1">
+        <v>0</v>
+      </c>
+      <c r="R295" s="1">
+        <v>0</v>
+      </c>
+      <c r="S295" s="1">
+        <v>0</v>
+      </c>
+      <c r="T295" s="1">
+        <v>1</v>
+      </c>
+      <c r="U295" s="3">
+        <v>0</v>
+      </c>
+      <c r="V295" s="1">
+        <v>0</v>
+      </c>
+      <c r="W295" s="1">
+        <v>0</v>
+      </c>
+      <c r="X295" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y295" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z295" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA295" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB295" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC295" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE295" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF295" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="E296" t="s">
+        <v>321</v>
+      </c>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
+      <c r="I296" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J296" s="1">
+        <v>0</v>
+      </c>
+      <c r="K296" s="1">
+        <v>0</v>
+      </c>
+      <c r="L296" s="1">
+        <v>0</v>
+      </c>
+      <c r="M296" s="1">
+        <v>0</v>
+      </c>
+      <c r="N296" s="1">
+        <v>0</v>
+      </c>
+      <c r="O296" s="1">
+        <v>0</v>
+      </c>
+      <c r="P296" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q296" s="1">
+        <v>0</v>
+      </c>
+      <c r="R296" s="1">
+        <v>0</v>
+      </c>
+      <c r="S296" s="1">
+        <v>0</v>
+      </c>
+      <c r="T296" s="1">
+        <v>0</v>
+      </c>
+      <c r="U296" s="3">
+        <v>0</v>
+      </c>
+      <c r="V296" s="1">
+        <v>0</v>
+      </c>
+      <c r="W296" s="1">
+        <v>0</v>
+      </c>
+      <c r="X296" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y296" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF296" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="I297" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J297" s="1">
+        <v>0</v>
+      </c>
+      <c r="K297" s="1">
+        <v>0</v>
+      </c>
+      <c r="L297" s="1">
+        <v>1</v>
+      </c>
+      <c r="M297" s="1">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1">
+        <v>0</v>
+      </c>
+      <c r="O297" s="1">
+        <v>0</v>
+      </c>
+      <c r="P297" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="1">
+        <v>49</v>
+      </c>
+      <c r="R297" s="1">
+        <v>0</v>
+      </c>
+      <c r="S297" s="1">
+        <v>0</v>
+      </c>
+      <c r="T297" s="1">
+        <v>0</v>
+      </c>
+      <c r="U297" s="3">
+        <v>0</v>
+      </c>
+      <c r="V297" s="1">
+        <v>0</v>
+      </c>
+      <c r="W297" s="1">
+        <v>0</v>
+      </c>
+      <c r="X297" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y297" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z297" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC297" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD297" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE297" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF297" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J298" s="1">
+        <v>0</v>
+      </c>
+      <c r="K298" s="1">
+        <v>0</v>
+      </c>
+      <c r="L298" s="1">
+        <v>0</v>
+      </c>
+      <c r="M298" s="1">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1">
+        <v>0</v>
+      </c>
+      <c r="O298" s="1">
+        <v>0</v>
+      </c>
+      <c r="P298" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="1">
+        <v>0</v>
+      </c>
+      <c r="R298" s="1">
+        <v>10</v>
+      </c>
+      <c r="S298" s="1">
+        <v>0</v>
+      </c>
+      <c r="T298" s="1">
+        <v>0</v>
+      </c>
+      <c r="U298" s="3">
+        <v>0</v>
+      </c>
+      <c r="V298" s="1">
+        <v>0</v>
+      </c>
+      <c r="W298" s="1">
+        <v>1</v>
+      </c>
+      <c r="X298" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y298" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF298" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J299" s="1">
+        <v>1</v>
+      </c>
+      <c r="K299" s="1">
+        <v>0</v>
+      </c>
+      <c r="L299" s="1">
+        <v>3</v>
+      </c>
+      <c r="M299" s="1">
+        <v>0</v>
+      </c>
+      <c r="N299" s="1">
+        <v>1</v>
+      </c>
+      <c r="O299" s="1">
+        <v>1</v>
+      </c>
+      <c r="P299" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q299" s="1">
+        <v>0</v>
+      </c>
+      <c r="R299" s="1">
+        <v>0</v>
+      </c>
+      <c r="S299" s="1">
+        <v>27</v>
+      </c>
+      <c r="T299" s="1">
+        <v>0</v>
+      </c>
+      <c r="U299" s="3">
+        <v>0</v>
+      </c>
+      <c r="V299" s="1">
+        <v>1</v>
+      </c>
+      <c r="W299" s="1">
+        <v>0</v>
+      </c>
+      <c r="X299" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y299" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z299" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA299" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB299" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC299" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD299" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE299" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF299" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
+      <c r="I300" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J300" s="1">
+        <v>0</v>
+      </c>
+      <c r="K300" s="1">
+        <v>0</v>
+      </c>
+      <c r="L300" s="1">
+        <v>0</v>
+      </c>
+      <c r="M300" s="1">
+        <v>0</v>
+      </c>
+      <c r="N300" s="1">
+        <v>0</v>
+      </c>
+      <c r="O300" s="1">
+        <v>0</v>
+      </c>
+      <c r="P300" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q300" s="1">
+        <v>0</v>
+      </c>
+      <c r="R300" s="1">
+        <v>0</v>
+      </c>
+      <c r="S300" s="1">
+        <v>0</v>
+      </c>
+      <c r="T300" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="294" spans="9:34">
-      <c r="I294" t="s">
+      <c r="U300" s="3">
+        <v>0</v>
+      </c>
+      <c r="V300" s="1">
+        <v>0</v>
+      </c>
+      <c r="W300" s="1">
+        <v>1</v>
+      </c>
+      <c r="X300" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y300" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE300" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF300" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G301" s="9"/>
+      <c r="H301" s="10"/>
+      <c r="I301" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J301" s="2">
+        <v>0</v>
+      </c>
+      <c r="K301" s="2">
+        <v>0</v>
+      </c>
+      <c r="L301" s="2">
+        <v>0</v>
+      </c>
+      <c r="M301" s="2">
+        <v>0</v>
+      </c>
+      <c r="N301" s="2">
+        <v>1</v>
+      </c>
+      <c r="O301" s="2">
+        <v>0</v>
+      </c>
+      <c r="P301" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q301" s="2">
+        <v>0</v>
+      </c>
+      <c r="R301" s="2">
+        <v>0</v>
+      </c>
+      <c r="S301" s="2">
+        <v>0</v>
+      </c>
+      <c r="T301" s="2">
+        <v>0</v>
+      </c>
+      <c r="U301" s="4">
+        <v>5</v>
+      </c>
+      <c r="V301" s="2">
+        <v>0</v>
+      </c>
+      <c r="W301" s="2">
+        <v>0</v>
+      </c>
+      <c r="X301" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y301" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF301" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>323</v>
+      </c>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J302" s="1">
+        <v>11</v>
+      </c>
+      <c r="K302" s="1">
+        <v>0</v>
+      </c>
+      <c r="L302" s="1">
+        <v>0</v>
+      </c>
+      <c r="M302" s="1">
+        <v>0</v>
+      </c>
+      <c r="N302" s="1">
+        <v>0</v>
+      </c>
+      <c r="O302" s="1">
+        <v>0</v>
+      </c>
+      <c r="P302" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q302" s="1">
+        <v>2</v>
+      </c>
+      <c r="R302" s="1">
+        <v>0</v>
+      </c>
+      <c r="S302" s="1">
+        <v>0</v>
+      </c>
+      <c r="T302" s="1">
+        <v>0</v>
+      </c>
+      <c r="U302" s="3">
+        <v>0</v>
+      </c>
+      <c r="V302" s="1">
+        <v>15</v>
+      </c>
+      <c r="W302" s="1">
+        <v>0</v>
+      </c>
+      <c r="X302" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y302" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF302" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J303" s="1">
+        <v>0</v>
+      </c>
+      <c r="K303" s="1">
+        <v>2</v>
+      </c>
+      <c r="L303" s="1">
+        <v>0</v>
+      </c>
+      <c r="M303" s="1">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1">
+        <v>0</v>
+      </c>
+      <c r="O303" s="1">
+        <v>0</v>
+      </c>
+      <c r="P303" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q303" s="1">
+        <v>0</v>
+      </c>
+      <c r="R303" s="1">
+        <v>0</v>
+      </c>
+      <c r="S303" s="1">
+        <v>0</v>
+      </c>
+      <c r="T303" s="1">
+        <v>0</v>
+      </c>
+      <c r="U303" s="3">
+        <v>0</v>
+      </c>
+      <c r="V303" s="1">
+        <v>0</v>
+      </c>
+      <c r="W303" s="1">
+        <v>1</v>
+      </c>
+      <c r="X303" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y303" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF303" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J304" s="1">
+        <v>0</v>
+      </c>
+      <c r="K304" s="1">
+        <v>0</v>
+      </c>
+      <c r="L304" s="1">
+        <v>5</v>
+      </c>
+      <c r="M304" s="1">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1">
+        <v>0</v>
+      </c>
+      <c r="O304" s="1">
+        <v>0</v>
+      </c>
+      <c r="P304" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q304" s="1">
+        <v>0</v>
+      </c>
+      <c r="R304" s="1">
+        <v>0</v>
+      </c>
+      <c r="S304" s="1">
+        <v>0</v>
+      </c>
+      <c r="T304" s="1">
+        <v>0</v>
+      </c>
+      <c r="U304" s="3">
+        <v>0</v>
+      </c>
+      <c r="V304" s="1">
+        <v>0</v>
+      </c>
+      <c r="W304" s="1">
+        <v>0</v>
+      </c>
+      <c r="X304" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y304" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF304" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J305" s="1">
+        <v>0</v>
+      </c>
+      <c r="K305" s="1">
+        <v>0</v>
+      </c>
+      <c r="L305" s="1">
+        <v>0</v>
+      </c>
+      <c r="M305" s="1">
+        <v>9</v>
+      </c>
+      <c r="N305" s="1">
+        <v>0</v>
+      </c>
+      <c r="O305" s="1">
+        <v>0</v>
+      </c>
+      <c r="P305" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="1">
+        <v>0</v>
+      </c>
+      <c r="R305" s="1">
+        <v>0</v>
+      </c>
+      <c r="S305" s="1">
+        <v>0</v>
+      </c>
+      <c r="T305" s="1">
+        <v>1</v>
+      </c>
+      <c r="U305" s="3">
+        <v>0</v>
+      </c>
+      <c r="V305" s="1">
+        <v>0</v>
+      </c>
+      <c r="W305" s="1">
+        <v>0</v>
+      </c>
+      <c r="X305" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y305" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF305" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J294">
-        <v>0</v>
-      </c>
-      <c r="K294">
-        <v>0</v>
-      </c>
-      <c r="L294">
-        <v>0</v>
-      </c>
-      <c r="M294">
-        <v>0</v>
-      </c>
-      <c r="N294">
-        <v>20</v>
-      </c>
-      <c r="O294">
-        <v>0</v>
-      </c>
-      <c r="P294">
-        <v>0</v>
-      </c>
-      <c r="Q294">
-        <v>1</v>
-      </c>
-      <c r="R294">
-        <v>0</v>
-      </c>
-      <c r="S294">
-        <v>0</v>
-      </c>
-      <c r="T294">
-        <v>0</v>
-      </c>
-      <c r="U294">
-        <v>1</v>
-      </c>
-      <c r="V294">
-        <v>0</v>
-      </c>
-      <c r="W294">
-        <v>0</v>
-      </c>
-      <c r="X294">
-        <v>1</v>
-      </c>
-      <c r="Y294">
-        <v>0</v>
-      </c>
-      <c r="Z294">
+      <c r="J306" s="1">
+        <v>0</v>
+      </c>
+      <c r="K306" s="1">
+        <v>0</v>
+      </c>
+      <c r="L306" s="1">
+        <v>0</v>
+      </c>
+      <c r="M306" s="1">
+        <v>0</v>
+      </c>
+      <c r="N306" s="1">
+        <v>5</v>
+      </c>
+      <c r="O306" s="1">
+        <v>0</v>
+      </c>
+      <c r="P306" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="1">
+        <v>0</v>
+      </c>
+      <c r="R306" s="1">
+        <v>0</v>
+      </c>
+      <c r="S306" s="1">
+        <v>0</v>
+      </c>
+      <c r="T306" s="1">
+        <v>0</v>
+      </c>
+      <c r="U306" s="3">
+        <v>0</v>
+      </c>
+      <c r="V306" s="1">
+        <v>0</v>
+      </c>
+      <c r="W306" s="1">
+        <v>0</v>
+      </c>
+      <c r="X306" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y306" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z306" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF306" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J307" s="1">
+        <v>0</v>
+      </c>
+      <c r="K307" s="1">
+        <v>0</v>
+      </c>
+      <c r="L307" s="1">
+        <v>0</v>
+      </c>
+      <c r="M307" s="1">
+        <v>0</v>
+      </c>
+      <c r="N307" s="1">
+        <v>0</v>
+      </c>
+      <c r="O307" s="1">
+        <v>3</v>
+      </c>
+      <c r="P307" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q307" s="1">
+        <v>0</v>
+      </c>
+      <c r="R307" s="1">
+        <v>0</v>
+      </c>
+      <c r="S307" s="1">
+        <v>0</v>
+      </c>
+      <c r="T307" s="1">
+        <v>0</v>
+      </c>
+      <c r="U307" s="3">
+        <v>0</v>
+      </c>
+      <c r="V307" s="1">
+        <v>1</v>
+      </c>
+      <c r="W307" s="1">
+        <v>0</v>
+      </c>
+      <c r="X307" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y307" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA307" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF307" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J308" s="1">
+        <v>0</v>
+      </c>
+      <c r="K308" s="1">
+        <v>1</v>
+      </c>
+      <c r="L308" s="1">
+        <v>0</v>
+      </c>
+      <c r="M308" s="1">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1">
+        <v>0</v>
+      </c>
+      <c r="O308" s="1">
+        <v>0</v>
+      </c>
+      <c r="P308" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q308" s="1">
+        <v>0</v>
+      </c>
+      <c r="R308" s="1">
+        <v>0</v>
+      </c>
+      <c r="S308" s="1">
+        <v>0</v>
+      </c>
+      <c r="T308" s="1">
+        <v>0</v>
+      </c>
+      <c r="U308" s="3">
+        <v>0</v>
+      </c>
+      <c r="V308" s="1">
+        <v>0</v>
+      </c>
+      <c r="W308" s="1">
+        <v>1</v>
+      </c>
+      <c r="X308" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y308" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF308" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
+      <c r="I309" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J309" s="1">
+        <v>0</v>
+      </c>
+      <c r="K309" s="1">
+        <v>0</v>
+      </c>
+      <c r="L309" s="1">
+        <v>1</v>
+      </c>
+      <c r="M309" s="1">
+        <v>0</v>
+      </c>
+      <c r="N309" s="1">
+        <v>1</v>
+      </c>
+      <c r="O309" s="1">
+        <v>0</v>
+      </c>
+      <c r="P309" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q309" s="1">
+        <v>5</v>
+      </c>
+      <c r="R309" s="1">
+        <v>0</v>
+      </c>
+      <c r="S309" s="1">
+        <v>1</v>
+      </c>
+      <c r="T309" s="1">
+        <v>0</v>
+      </c>
+      <c r="U309" s="3">
+        <v>0</v>
+      </c>
+      <c r="V309" s="1">
+        <v>0</v>
+      </c>
+      <c r="W309" s="1">
+        <v>0</v>
+      </c>
+      <c r="X309" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y309" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC309" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF309" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
+      <c r="I310" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J310" s="1">
+        <v>0</v>
+      </c>
+      <c r="K310" s="1">
+        <v>0</v>
+      </c>
+      <c r="L310" s="1">
+        <v>0</v>
+      </c>
+      <c r="M310" s="1">
+        <v>0</v>
+      </c>
+      <c r="N310" s="1">
+        <v>0</v>
+      </c>
+      <c r="O310" s="1">
+        <v>0</v>
+      </c>
+      <c r="P310" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="1">
+        <v>0</v>
+      </c>
+      <c r="R310" s="1">
+        <v>0</v>
+      </c>
+      <c r="S310" s="1">
+        <v>0</v>
+      </c>
+      <c r="T310" s="1">
+        <v>0</v>
+      </c>
+      <c r="U310" s="3">
+        <v>0</v>
+      </c>
+      <c r="V310" s="1">
+        <v>0</v>
+      </c>
+      <c r="W310" s="1">
+        <v>0</v>
+      </c>
+      <c r="X310" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y310" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD310" s="1">
         <v>2</v>
       </c>
-      <c r="AA294">
-        <v>0</v>
-      </c>
-      <c r="AB294">
-        <v>0</v>
-      </c>
-      <c r="AC294">
+      <c r="AE310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF310" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
+      <c r="I311" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J311" s="1">
+        <v>0</v>
+      </c>
+      <c r="K311" s="1">
+        <v>0</v>
+      </c>
+      <c r="L311" s="1">
+        <v>0</v>
+      </c>
+      <c r="M311" s="1">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1">
+        <v>0</v>
+      </c>
+      <c r="O311" s="1">
+        <v>0</v>
+      </c>
+      <c r="P311" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="1">
+        <v>0</v>
+      </c>
+      <c r="R311" s="1">
+        <v>0</v>
+      </c>
+      <c r="S311" s="1">
+        <v>2</v>
+      </c>
+      <c r="T311" s="1">
+        <v>0</v>
+      </c>
+      <c r="U311" s="3">
+        <v>0</v>
+      </c>
+      <c r="V311" s="1">
+        <v>0</v>
+      </c>
+      <c r="W311" s="1">
+        <v>0</v>
+      </c>
+      <c r="X311" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y311" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE311" s="1">
         <v>5</v>
       </c>
-      <c r="AD294">
-        <v>0</v>
-      </c>
-      <c r="AE294">
-        <v>0</v>
-      </c>
-      <c r="AF294">
-        <v>0</v>
-      </c>
-      <c r="AG294">
-        <v>0</v>
-      </c>
-      <c r="AH294">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="295" spans="9:34">
-      <c r="I295" t="s">
-        <v>293</v>
-      </c>
-      <c r="J295">
-        <v>0</v>
-      </c>
-      <c r="K295">
-        <v>0</v>
-      </c>
-      <c r="L295">
-        <v>0</v>
-      </c>
-      <c r="M295">
-        <v>1</v>
-      </c>
-      <c r="N295">
-        <v>0</v>
-      </c>
-      <c r="O295">
-        <v>40</v>
-      </c>
-      <c r="P295">
-        <v>0</v>
-      </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>0</v>
-      </c>
-      <c r="S295">
-        <v>0</v>
-      </c>
-      <c r="T295">
-        <v>1</v>
-      </c>
-      <c r="U295">
-        <v>0</v>
-      </c>
-      <c r="V295">
-        <v>0</v>
-      </c>
-      <c r="W295">
-        <v>0</v>
-      </c>
-      <c r="X295">
-        <v>0</v>
-      </c>
-      <c r="Y295">
-        <v>0</v>
-      </c>
-      <c r="Z295">
-        <v>0</v>
-      </c>
-      <c r="AA295">
-        <v>1</v>
-      </c>
-      <c r="AB295">
-        <v>0</v>
-      </c>
-      <c r="AC295">
-        <v>0</v>
-      </c>
-      <c r="AD295">
+      <c r="AF311" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J312" s="1">
+        <v>0</v>
+      </c>
+      <c r="K312" s="1">
+        <v>0</v>
+      </c>
+      <c r="L312" s="1">
+        <v>0</v>
+      </c>
+      <c r="M312" s="1">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1">
+        <v>0</v>
+      </c>
+      <c r="O312" s="1">
+        <v>0</v>
+      </c>
+      <c r="P312" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="1">
+        <v>0</v>
+      </c>
+      <c r="R312" s="1">
+        <v>0</v>
+      </c>
+      <c r="S312" s="1">
+        <v>0</v>
+      </c>
+      <c r="T312" s="1">
+        <v>2</v>
+      </c>
+      <c r="U312" s="3">
+        <v>0</v>
+      </c>
+      <c r="V312" s="1">
+        <v>0</v>
+      </c>
+      <c r="W312" s="1">
+        <v>0</v>
+      </c>
+      <c r="X312" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y312" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE312" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF312" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="7:33" x14ac:dyDescent="0.2">
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J313" s="1">
+        <v>0</v>
+      </c>
+      <c r="K313" s="1">
+        <v>0</v>
+      </c>
+      <c r="L313" s="1">
+        <v>0</v>
+      </c>
+      <c r="M313" s="1">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1">
+        <v>0</v>
+      </c>
+      <c r="O313" s="1">
+        <v>0</v>
+      </c>
+      <c r="P313" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="1">
+        <v>0</v>
+      </c>
+      <c r="R313" s="1">
+        <v>0</v>
+      </c>
+      <c r="S313" s="1">
+        <v>0</v>
+      </c>
+      <c r="T313" s="1">
+        <v>0</v>
+      </c>
+      <c r="U313" s="3">
         <v>3</v>
       </c>
-      <c r="AE295">
-        <v>0</v>
-      </c>
-      <c r="AF295">
-        <v>0</v>
-      </c>
-      <c r="AG295">
-        <v>0</v>
-      </c>
-      <c r="AH295">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="296" spans="9:34">
-      <c r="I296" t="s">
-        <v>294</v>
-      </c>
-      <c r="J296">
-        <v>0</v>
-      </c>
-      <c r="K296">
-        <v>0</v>
-      </c>
-      <c r="L296">
-        <v>0</v>
-      </c>
-      <c r="M296">
-        <v>0</v>
-      </c>
-      <c r="N296">
-        <v>0</v>
-      </c>
-      <c r="O296">
-        <v>0</v>
-      </c>
-      <c r="P296">
-        <v>8</v>
-      </c>
-      <c r="Q296">
-        <v>0</v>
-      </c>
-      <c r="R296">
-        <v>0</v>
-      </c>
-      <c r="S296">
-        <v>0</v>
-      </c>
-      <c r="T296">
-        <v>0</v>
-      </c>
-      <c r="U296">
-        <v>0</v>
-      </c>
-      <c r="V296">
-        <v>0</v>
-      </c>
-      <c r="W296">
-        <v>0</v>
-      </c>
-      <c r="X296">
-        <v>0</v>
-      </c>
-      <c r="Y296">
-        <v>0</v>
-      </c>
-      <c r="Z296">
-        <v>0</v>
-      </c>
-      <c r="AA296">
-        <v>0</v>
-      </c>
-      <c r="AB296">
-        <v>0</v>
-      </c>
-      <c r="AC296">
-        <v>0</v>
-      </c>
-      <c r="AD296">
-        <v>0</v>
-      </c>
-      <c r="AE296">
-        <v>0</v>
-      </c>
-      <c r="AF296">
-        <v>0</v>
-      </c>
-      <c r="AG296">
-        <v>1</v>
-      </c>
-      <c r="AH296">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="9:34">
-      <c r="I297" t="s">
-        <v>295</v>
-      </c>
-      <c r="J297">
-        <v>0</v>
-      </c>
-      <c r="K297">
-        <v>0</v>
-      </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-      <c r="M297">
-        <v>0</v>
-      </c>
-      <c r="N297">
-        <v>0</v>
-      </c>
-      <c r="O297">
-        <v>0</v>
-      </c>
-      <c r="P297">
-        <v>0</v>
-      </c>
-      <c r="Q297">
-        <v>49</v>
-      </c>
-      <c r="R297">
-        <v>0</v>
-      </c>
-      <c r="S297">
-        <v>0</v>
-      </c>
-      <c r="T297">
-        <v>0</v>
-      </c>
-      <c r="U297">
-        <v>0</v>
-      </c>
-      <c r="V297">
-        <v>0</v>
-      </c>
-      <c r="W297">
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <v>0</v>
-      </c>
-      <c r="Y297">
-        <v>1</v>
-      </c>
-      <c r="Z297">
-        <v>0</v>
-      </c>
-      <c r="AA297">
-        <v>0</v>
-      </c>
-      <c r="AB297">
-        <v>0</v>
-      </c>
-      <c r="AC297">
-        <v>5</v>
-      </c>
-      <c r="AD297">
-        <v>0</v>
-      </c>
-      <c r="AE297">
-        <v>0</v>
-      </c>
-      <c r="AF297">
-        <v>1</v>
-      </c>
-      <c r="AG297">
-        <v>0</v>
-      </c>
-      <c r="AH297">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="298" spans="9:34">
-      <c r="I298" t="s">
-        <v>296</v>
-      </c>
-      <c r="J298">
-        <v>0</v>
-      </c>
-      <c r="K298">
-        <v>0</v>
-      </c>
-      <c r="L298">
-        <v>0</v>
-      </c>
-      <c r="M298">
-        <v>0</v>
-      </c>
-      <c r="N298">
-        <v>0</v>
-      </c>
-      <c r="O298">
-        <v>0</v>
-      </c>
-      <c r="P298">
-        <v>0</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>10</v>
-      </c>
-      <c r="S298">
-        <v>0</v>
-      </c>
-      <c r="T298">
-        <v>0</v>
-      </c>
-      <c r="U298">
-        <v>0</v>
-      </c>
-      <c r="V298">
-        <v>0</v>
-      </c>
-      <c r="W298">
-        <v>1</v>
-      </c>
-      <c r="X298">
-        <v>0</v>
-      </c>
-      <c r="Y298">
-        <v>0</v>
-      </c>
-      <c r="Z298">
-        <v>0</v>
-      </c>
-      <c r="AA298">
-        <v>0</v>
-      </c>
-      <c r="AB298">
-        <v>0</v>
-      </c>
-      <c r="AC298">
-        <v>0</v>
-      </c>
-      <c r="AD298">
-        <v>0</v>
-      </c>
-      <c r="AE298">
-        <v>0</v>
-      </c>
-      <c r="AF298">
-        <v>0</v>
-      </c>
-      <c r="AG298">
-        <v>0</v>
-      </c>
-      <c r="AH298">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="299" spans="9:34">
-      <c r="I299" t="s">
-        <v>297</v>
-      </c>
-      <c r="J299">
-        <v>1</v>
-      </c>
-      <c r="K299">
-        <v>0</v>
-      </c>
-      <c r="L299">
-        <v>3</v>
-      </c>
-      <c r="M299">
-        <v>0</v>
-      </c>
-      <c r="N299">
-        <v>1</v>
-      </c>
-      <c r="O299">
-        <v>1</v>
-      </c>
-      <c r="P299">
-        <v>0</v>
-      </c>
-      <c r="Q299">
-        <v>0</v>
-      </c>
-      <c r="R299">
-        <v>0</v>
-      </c>
-      <c r="S299">
-        <v>27</v>
-      </c>
-      <c r="T299">
-        <v>0</v>
-      </c>
-      <c r="U299">
-        <v>0</v>
-      </c>
-      <c r="V299">
-        <v>1</v>
-      </c>
-      <c r="W299">
-        <v>0</v>
-      </c>
-      <c r="X299">
-        <v>1</v>
-      </c>
-      <c r="Y299">
-        <v>0</v>
-      </c>
-      <c r="Z299">
-        <v>0</v>
-      </c>
-      <c r="AA299">
-        <v>0</v>
-      </c>
-      <c r="AB299">
-        <v>0</v>
-      </c>
-      <c r="AC299">
-        <v>1</v>
-      </c>
-      <c r="AD299">
-        <v>0</v>
-      </c>
-      <c r="AE299">
-        <v>3</v>
-      </c>
-      <c r="AF299">
-        <v>0</v>
-      </c>
-      <c r="AG299">
-        <v>0</v>
-      </c>
-      <c r="AH299">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="300" spans="9:34">
-      <c r="I300" t="s">
-        <v>319</v>
-      </c>
-      <c r="J300">
-        <v>0</v>
-      </c>
-      <c r="K300">
-        <v>0</v>
-      </c>
-      <c r="L300">
-        <v>0</v>
-      </c>
-      <c r="M300">
-        <v>0</v>
-      </c>
-      <c r="N300">
-        <v>0</v>
-      </c>
-      <c r="O300">
-        <v>0</v>
-      </c>
-      <c r="P300">
-        <v>0</v>
-      </c>
-      <c r="Q300">
-        <v>0</v>
-      </c>
-      <c r="R300">
-        <v>0</v>
-      </c>
-      <c r="S300">
-        <v>0</v>
-      </c>
-      <c r="T300">
-        <v>21</v>
-      </c>
-      <c r="U300">
-        <v>0</v>
-      </c>
-      <c r="V300">
-        <v>0</v>
-      </c>
-      <c r="W300">
-        <v>1</v>
-      </c>
-      <c r="X300">
-        <v>0</v>
-      </c>
-      <c r="Y300">
-        <v>0</v>
-      </c>
-      <c r="Z300">
-        <v>0</v>
-      </c>
-      <c r="AA300">
-        <v>0</v>
-      </c>
-      <c r="AB300">
-        <v>0</v>
-      </c>
-      <c r="AC300">
-        <v>0</v>
-      </c>
-      <c r="AD300">
-        <v>0</v>
-      </c>
-      <c r="AE300">
-        <v>0</v>
-      </c>
-      <c r="AF300">
-        <v>1</v>
-      </c>
-      <c r="AG300">
-        <v>0</v>
-      </c>
-      <c r="AH300">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="301" spans="9:34">
-      <c r="I301" t="s">
-        <v>309</v>
-      </c>
-      <c r="J301">
-        <v>0</v>
-      </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-      <c r="L301">
-        <v>0</v>
-      </c>
-      <c r="M301">
-        <v>0</v>
-      </c>
-      <c r="N301">
-        <v>1</v>
-      </c>
-      <c r="O301">
-        <v>0</v>
-      </c>
-      <c r="P301">
-        <v>0</v>
-      </c>
-      <c r="Q301">
-        <v>0</v>
-      </c>
-      <c r="R301">
-        <v>0</v>
-      </c>
-      <c r="S301">
-        <v>0</v>
-      </c>
-      <c r="T301">
-        <v>0</v>
-      </c>
-      <c r="U301">
-        <v>5</v>
-      </c>
-      <c r="V301">
-        <v>0</v>
-      </c>
-      <c r="W301">
-        <v>0</v>
-      </c>
-      <c r="X301">
-        <v>0</v>
-      </c>
-      <c r="Y301">
-        <v>0</v>
-      </c>
-      <c r="Z301">
-        <v>0</v>
-      </c>
-      <c r="AA301">
-        <v>0</v>
-      </c>
-      <c r="AB301">
-        <v>0</v>
-      </c>
-      <c r="AC301">
-        <v>0</v>
-      </c>
-      <c r="AD301">
-        <v>0</v>
-      </c>
-      <c r="AE301">
-        <v>0</v>
-      </c>
-      <c r="AF301">
-        <v>0</v>
-      </c>
-      <c r="AG301">
-        <v>0</v>
-      </c>
-      <c r="AH301">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="9:34">
-      <c r="I302" t="s">
-        <v>288</v>
-      </c>
-      <c r="J302">
-        <v>11</v>
-      </c>
-      <c r="K302">
-        <v>0</v>
-      </c>
-      <c r="L302">
-        <v>0</v>
-      </c>
-      <c r="M302">
-        <v>0</v>
-      </c>
-      <c r="N302">
-        <v>0</v>
-      </c>
-      <c r="O302">
-        <v>0</v>
-      </c>
-      <c r="P302">
-        <v>0</v>
-      </c>
-      <c r="Q302">
-        <v>2</v>
-      </c>
-      <c r="R302">
-        <v>0</v>
-      </c>
-      <c r="S302">
-        <v>0</v>
-      </c>
-      <c r="T302">
-        <v>0</v>
-      </c>
-      <c r="U302">
-        <v>0</v>
-      </c>
-      <c r="V302">
-        <v>15</v>
-      </c>
-      <c r="W302">
-        <v>0</v>
-      </c>
-      <c r="X302">
-        <v>0</v>
-      </c>
-      <c r="Y302">
-        <v>0</v>
-      </c>
-      <c r="Z302">
-        <v>0</v>
-      </c>
-      <c r="AA302">
-        <v>0</v>
-      </c>
-      <c r="AB302">
-        <v>0</v>
-      </c>
-      <c r="AC302">
-        <v>0</v>
-      </c>
-      <c r="AD302">
-        <v>0</v>
-      </c>
-      <c r="AE302">
-        <v>0</v>
-      </c>
-      <c r="AF302">
-        <v>0</v>
-      </c>
-      <c r="AG302">
-        <v>0</v>
-      </c>
-      <c r="AH302">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="303" spans="9:34">
-      <c r="I303" t="s">
-        <v>289</v>
-      </c>
-      <c r="J303">
-        <v>0</v>
-      </c>
-      <c r="K303">
-        <v>2</v>
-      </c>
-      <c r="L303">
-        <v>0</v>
-      </c>
-      <c r="M303">
-        <v>0</v>
-      </c>
-      <c r="N303">
-        <v>0</v>
-      </c>
-      <c r="O303">
-        <v>0</v>
-      </c>
-      <c r="P303">
-        <v>0</v>
-      </c>
-      <c r="Q303">
-        <v>0</v>
-      </c>
-      <c r="R303">
-        <v>0</v>
-      </c>
-      <c r="S303">
-        <v>0</v>
-      </c>
-      <c r="T303">
-        <v>0</v>
-      </c>
-      <c r="U303">
-        <v>0</v>
-      </c>
-      <c r="V303">
-        <v>0</v>
-      </c>
-      <c r="W303">
-        <v>1</v>
-      </c>
-      <c r="X303">
-        <v>0</v>
-      </c>
-      <c r="Y303">
-        <v>0</v>
-      </c>
-      <c r="Z303">
-        <v>0</v>
-      </c>
-      <c r="AA303">
-        <v>0</v>
-      </c>
-      <c r="AB303">
-        <v>0</v>
-      </c>
-      <c r="AC303">
-        <v>0</v>
-      </c>
-      <c r="AD303">
-        <v>0</v>
-      </c>
-      <c r="AE303">
-        <v>0</v>
-      </c>
-      <c r="AF303">
-        <v>0</v>
-      </c>
-      <c r="AG303">
-        <v>0</v>
-      </c>
-      <c r="AH303">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="9:34">
-      <c r="I304" t="s">
-        <v>290</v>
-      </c>
-      <c r="J304">
-        <v>0</v>
-      </c>
-      <c r="K304">
-        <v>0</v>
-      </c>
-      <c r="L304">
-        <v>5</v>
-      </c>
-      <c r="M304">
-        <v>0</v>
-      </c>
-      <c r="N304">
-        <v>0</v>
-      </c>
-      <c r="O304">
-        <v>0</v>
-      </c>
-      <c r="P304">
-        <v>0</v>
-      </c>
-      <c r="Q304">
-        <v>0</v>
-      </c>
-      <c r="R304">
-        <v>0</v>
-      </c>
-      <c r="S304">
-        <v>0</v>
-      </c>
-      <c r="T304">
-        <v>0</v>
-      </c>
-      <c r="U304">
-        <v>0</v>
-      </c>
-      <c r="V304">
-        <v>0</v>
-      </c>
-      <c r="W304">
-        <v>0</v>
-      </c>
-      <c r="X304">
-        <v>3</v>
-      </c>
-      <c r="Y304">
-        <v>0</v>
-      </c>
-      <c r="Z304">
-        <v>0</v>
-      </c>
-      <c r="AA304">
-        <v>0</v>
-      </c>
-      <c r="AB304">
-        <v>0</v>
-      </c>
-      <c r="AC304">
-        <v>0</v>
-      </c>
-      <c r="AD304">
-        <v>0</v>
-      </c>
-      <c r="AE304">
-        <v>0</v>
-      </c>
-      <c r="AF304">
-        <v>0</v>
-      </c>
-      <c r="AG304">
-        <v>0</v>
-      </c>
-      <c r="AH304">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="305" spans="9:34">
-      <c r="I305" t="s">
-        <v>318</v>
-      </c>
-      <c r="J305">
-        <v>0</v>
-      </c>
-      <c r="K305">
-        <v>0</v>
-      </c>
-      <c r="L305">
-        <v>0</v>
-      </c>
-      <c r="M305">
-        <v>9</v>
-      </c>
-      <c r="N305">
-        <v>0</v>
-      </c>
-      <c r="O305">
-        <v>0</v>
-      </c>
-      <c r="P305">
-        <v>0</v>
-      </c>
-      <c r="Q305">
-        <v>0</v>
-      </c>
-      <c r="R305">
-        <v>0</v>
-      </c>
-      <c r="S305">
-        <v>0</v>
-      </c>
-      <c r="T305">
-        <v>1</v>
-      </c>
-      <c r="U305">
-        <v>0</v>
-      </c>
-      <c r="V305">
-        <v>0</v>
-      </c>
-      <c r="W305">
-        <v>0</v>
-      </c>
-      <c r="X305">
-        <v>0</v>
-      </c>
-      <c r="Y305">
-        <v>0</v>
-      </c>
-      <c r="Z305">
-        <v>0</v>
-      </c>
-      <c r="AA305">
-        <v>0</v>
-      </c>
-      <c r="AB305">
-        <v>0</v>
-      </c>
-      <c r="AC305">
-        <v>0</v>
-      </c>
-      <c r="AD305">
-        <v>0</v>
-      </c>
-      <c r="AE305">
-        <v>0</v>
-      </c>
-      <c r="AF305">
-        <v>0</v>
-      </c>
-      <c r="AG305">
-        <v>0</v>
-      </c>
-      <c r="AH305">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="306" spans="9:34">
-      <c r="I306" t="s">
-        <v>292</v>
-      </c>
-      <c r="J306">
-        <v>0</v>
-      </c>
-      <c r="K306">
-        <v>0</v>
-      </c>
-      <c r="L306">
-        <v>0</v>
-      </c>
-      <c r="M306">
-        <v>0</v>
-      </c>
-      <c r="N306">
-        <v>5</v>
-      </c>
-      <c r="O306">
-        <v>0</v>
-      </c>
-      <c r="P306">
-        <v>0</v>
-      </c>
-      <c r="Q306">
-        <v>0</v>
-      </c>
-      <c r="R306">
-        <v>0</v>
-      </c>
-      <c r="S306">
-        <v>0</v>
-      </c>
-      <c r="T306">
-        <v>0</v>
-      </c>
-      <c r="U306">
-        <v>0</v>
-      </c>
-      <c r="V306">
-        <v>0</v>
-      </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-      <c r="X306">
-        <v>0</v>
-      </c>
-      <c r="Y306">
-        <v>0</v>
-      </c>
-      <c r="Z306">
-        <v>1</v>
-      </c>
-      <c r="AA306">
-        <v>0</v>
-      </c>
-      <c r="AB306">
-        <v>0</v>
-      </c>
-      <c r="AC306">
-        <v>0</v>
-      </c>
-      <c r="AD306">
-        <v>0</v>
-      </c>
-      <c r="AE306">
-        <v>0</v>
-      </c>
-      <c r="AF306">
-        <v>0</v>
-      </c>
-      <c r="AG306">
-        <v>0</v>
-      </c>
-      <c r="AH306">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="9:34">
-      <c r="I307" t="s">
-        <v>293</v>
-      </c>
-      <c r="J307">
-        <v>0</v>
-      </c>
-      <c r="K307">
-        <v>0</v>
-      </c>
-      <c r="L307">
-        <v>0</v>
-      </c>
-      <c r="M307">
-        <v>0</v>
-      </c>
-      <c r="N307">
-        <v>0</v>
-      </c>
-      <c r="O307">
-        <v>3</v>
-      </c>
-      <c r="P307">
-        <v>0</v>
-      </c>
-      <c r="Q307">
-        <v>0</v>
-      </c>
-      <c r="R307">
-        <v>0</v>
-      </c>
-      <c r="S307">
-        <v>0</v>
-      </c>
-      <c r="T307">
-        <v>0</v>
-      </c>
-      <c r="U307">
-        <v>0</v>
-      </c>
-      <c r="V307">
-        <v>1</v>
-      </c>
-      <c r="W307">
-        <v>0</v>
-      </c>
-      <c r="X307">
-        <v>0</v>
-      </c>
-      <c r="Y307">
-        <v>0</v>
-      </c>
-      <c r="Z307">
-        <v>0</v>
-      </c>
-      <c r="AA307">
-        <v>9</v>
-      </c>
-      <c r="AB307">
-        <v>0</v>
-      </c>
-      <c r="AC307">
-        <v>0</v>
-      </c>
-      <c r="AD307">
-        <v>0</v>
-      </c>
-      <c r="AE307">
-        <v>0</v>
-      </c>
-      <c r="AF307">
-        <v>0</v>
-      </c>
-      <c r="AG307">
-        <v>0</v>
-      </c>
-      <c r="AH307">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="9:34">
-      <c r="I308" t="s">
-        <v>294</v>
-      </c>
-      <c r="J308">
-        <v>0</v>
-      </c>
-      <c r="K308">
-        <v>1</v>
-      </c>
-      <c r="L308">
-        <v>0</v>
-      </c>
-      <c r="M308">
-        <v>0</v>
-      </c>
-      <c r="N308">
-        <v>0</v>
-      </c>
-      <c r="O308">
-        <v>0</v>
-      </c>
-      <c r="P308">
-        <v>3</v>
-      </c>
-      <c r="Q308">
-        <v>0</v>
-      </c>
-      <c r="R308">
-        <v>0</v>
-      </c>
-      <c r="S308">
-        <v>0</v>
-      </c>
-      <c r="T308">
-        <v>0</v>
-      </c>
-      <c r="U308">
-        <v>0</v>
-      </c>
-      <c r="V308">
-        <v>0</v>
-      </c>
-      <c r="W308">
-        <v>1</v>
-      </c>
-      <c r="X308">
-        <v>0</v>
-      </c>
-      <c r="Y308">
-        <v>0</v>
-      </c>
-      <c r="Z308">
-        <v>0</v>
-      </c>
-      <c r="AA308">
-        <v>0</v>
-      </c>
-      <c r="AB308">
-        <v>0</v>
-      </c>
-      <c r="AC308">
-        <v>0</v>
-      </c>
-      <c r="AD308">
-        <v>0</v>
-      </c>
-      <c r="AE308">
-        <v>0</v>
-      </c>
-      <c r="AF308">
-        <v>0</v>
-      </c>
-      <c r="AG308">
-        <v>0</v>
-      </c>
-      <c r="AH308">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="9:34">
-      <c r="I309" t="s">
-        <v>295</v>
-      </c>
-      <c r="J309">
-        <v>0</v>
-      </c>
-      <c r="K309">
-        <v>0</v>
-      </c>
-      <c r="L309">
-        <v>1</v>
-      </c>
-      <c r="M309">
-        <v>0</v>
-      </c>
-      <c r="N309">
-        <v>1</v>
-      </c>
-      <c r="O309">
-        <v>0</v>
-      </c>
-      <c r="P309">
-        <v>0</v>
-      </c>
-      <c r="Q309">
-        <v>5</v>
-      </c>
-      <c r="R309">
-        <v>0</v>
-      </c>
-      <c r="S309">
-        <v>1</v>
-      </c>
-      <c r="T309">
-        <v>0</v>
-      </c>
-      <c r="U309">
-        <v>0</v>
-      </c>
-      <c r="V309">
-        <v>0</v>
-      </c>
-      <c r="W309">
-        <v>0</v>
-      </c>
-      <c r="X309">
-        <v>1</v>
-      </c>
-      <c r="Y309">
-        <v>0</v>
-      </c>
-      <c r="Z309">
-        <v>0</v>
-      </c>
-      <c r="AA309">
-        <v>0</v>
-      </c>
-      <c r="AB309">
-        <v>0</v>
-      </c>
-      <c r="AC309">
-        <v>19</v>
-      </c>
-      <c r="AD309">
-        <v>0</v>
-      </c>
-      <c r="AE309">
-        <v>0</v>
-      </c>
-      <c r="AF309">
-        <v>0</v>
-      </c>
-      <c r="AG309">
-        <v>0</v>
-      </c>
-      <c r="AH309">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="310" spans="9:34">
-      <c r="I310" t="s">
-        <v>296</v>
-      </c>
-      <c r="J310">
-        <v>0</v>
-      </c>
-      <c r="K310">
-        <v>0</v>
-      </c>
-      <c r="L310">
-        <v>0</v>
-      </c>
-      <c r="M310">
-        <v>0</v>
-      </c>
-      <c r="N310">
-        <v>0</v>
-      </c>
-      <c r="O310">
-        <v>0</v>
-      </c>
-      <c r="P310">
-        <v>0</v>
-      </c>
-      <c r="Q310">
-        <v>0</v>
-      </c>
-      <c r="R310">
-        <v>0</v>
-      </c>
-      <c r="S310">
-        <v>0</v>
-      </c>
-      <c r="T310">
-        <v>0</v>
-      </c>
-      <c r="U310">
-        <v>0</v>
-      </c>
-      <c r="V310">
-        <v>0</v>
-      </c>
-      <c r="W310">
-        <v>0</v>
-      </c>
-      <c r="X310">
-        <v>0</v>
-      </c>
-      <c r="Y310">
-        <v>0</v>
-      </c>
-      <c r="Z310">
-        <v>0</v>
-      </c>
-      <c r="AA310">
-        <v>0</v>
-      </c>
-      <c r="AB310">
-        <v>0</v>
-      </c>
-      <c r="AC310">
-        <v>0</v>
-      </c>
-      <c r="AD310">
-        <v>2</v>
-      </c>
-      <c r="AE310">
-        <v>0</v>
-      </c>
-      <c r="AF310">
-        <v>0</v>
-      </c>
-      <c r="AG310">
-        <v>0</v>
-      </c>
-      <c r="AH310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="9:34">
-      <c r="I311" t="s">
-        <v>297</v>
-      </c>
-      <c r="J311">
-        <v>0</v>
-      </c>
-      <c r="K311">
-        <v>0</v>
-      </c>
-      <c r="L311">
-        <v>0</v>
-      </c>
-      <c r="M311">
-        <v>0</v>
-      </c>
-      <c r="N311">
-        <v>0</v>
-      </c>
-      <c r="O311">
-        <v>0</v>
-      </c>
-      <c r="P311">
-        <v>0</v>
-      </c>
-      <c r="Q311">
-        <v>0</v>
-      </c>
-      <c r="R311">
-        <v>0</v>
-      </c>
-      <c r="S311">
-        <v>2</v>
-      </c>
-      <c r="T311">
-        <v>0</v>
-      </c>
-      <c r="U311">
-        <v>0</v>
-      </c>
-      <c r="V311">
-        <v>0</v>
-      </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
-      <c r="Y311">
-        <v>0</v>
-      </c>
-      <c r="Z311">
-        <v>0</v>
-      </c>
-      <c r="AA311">
-        <v>0</v>
-      </c>
-      <c r="AB311">
-        <v>0</v>
-      </c>
-      <c r="AC311">
-        <v>0</v>
-      </c>
-      <c r="AD311">
-        <v>0</v>
-      </c>
-      <c r="AE311">
-        <v>5</v>
-      </c>
-      <c r="AF311">
-        <v>0</v>
-      </c>
-      <c r="AG311">
-        <v>0</v>
-      </c>
-      <c r="AH311">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="9:34">
-      <c r="I312" t="s">
-        <v>319</v>
-      </c>
-      <c r="J312">
-        <v>0</v>
-      </c>
-      <c r="K312">
-        <v>0</v>
-      </c>
-      <c r="L312">
-        <v>0</v>
-      </c>
-      <c r="M312">
-        <v>0</v>
-      </c>
-      <c r="N312">
-        <v>0</v>
-      </c>
-      <c r="O312">
-        <v>0</v>
-      </c>
-      <c r="P312">
-        <v>0</v>
-      </c>
-      <c r="Q312">
-        <v>0</v>
-      </c>
-      <c r="R312">
-        <v>0</v>
-      </c>
-      <c r="S312">
-        <v>0</v>
-      </c>
-      <c r="T312">
-        <v>2</v>
-      </c>
-      <c r="U312">
-        <v>0</v>
-      </c>
-      <c r="V312">
-        <v>0</v>
-      </c>
-      <c r="W312">
-        <v>0</v>
-      </c>
-      <c r="X312">
-        <v>0</v>
-      </c>
-      <c r="Y312">
-        <v>0</v>
-      </c>
-      <c r="Z312">
-        <v>0</v>
-      </c>
-      <c r="AA312">
-        <v>0</v>
-      </c>
-      <c r="AB312">
-        <v>0</v>
-      </c>
-      <c r="AC312">
-        <v>0</v>
-      </c>
-      <c r="AD312">
-        <v>0</v>
-      </c>
-      <c r="AE312">
-        <v>0</v>
-      </c>
-      <c r="AF312">
-        <v>7</v>
-      </c>
-      <c r="AG312">
-        <v>0</v>
-      </c>
-      <c r="AH312">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="9:34">
-      <c r="I313" t="s">
-        <v>309</v>
-      </c>
-      <c r="J313">
-        <v>0</v>
-      </c>
-      <c r="K313">
-        <v>0</v>
-      </c>
-      <c r="L313">
-        <v>0</v>
-      </c>
-      <c r="M313">
-        <v>0</v>
-      </c>
-      <c r="N313">
-        <v>0</v>
-      </c>
-      <c r="O313">
-        <v>0</v>
-      </c>
-      <c r="P313">
-        <v>0</v>
-      </c>
-      <c r="Q313">
-        <v>0</v>
-      </c>
-      <c r="R313">
-        <v>0</v>
-      </c>
-      <c r="S313">
-        <v>0</v>
-      </c>
-      <c r="T313">
-        <v>0</v>
-      </c>
-      <c r="U313">
-        <v>3</v>
-      </c>
-      <c r="V313">
-        <v>0</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-      <c r="Y313">
-        <v>0</v>
-      </c>
-      <c r="Z313">
-        <v>0</v>
-      </c>
-      <c r="AA313">
-        <v>0</v>
-      </c>
-      <c r="AB313">
-        <v>0</v>
-      </c>
-      <c r="AC313">
-        <v>0</v>
-      </c>
-      <c r="AD313">
-        <v>0</v>
-      </c>
-      <c r="AE313">
-        <v>0</v>
-      </c>
-      <c r="AF313">
-        <v>0</v>
-      </c>
-      <c r="AG313">
-        <v>1</v>
-      </c>
-      <c r="AH313">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="9:34">
-      <c r="J314">
-        <v>69</v>
-      </c>
-      <c r="K314">
-        <v>12</v>
-      </c>
-      <c r="L314">
-        <v>36</v>
-      </c>
-      <c r="M314">
-        <v>25</v>
-      </c>
-      <c r="N314">
-        <v>28</v>
-      </c>
-      <c r="O314">
-        <v>46</v>
-      </c>
-      <c r="P314">
-        <v>11</v>
-      </c>
-      <c r="Q314">
-        <v>62</v>
-      </c>
-      <c r="R314">
-        <v>10</v>
-      </c>
-      <c r="S314">
-        <v>31</v>
-      </c>
-      <c r="T314">
-        <v>26</v>
-      </c>
-      <c r="U314">
-        <v>9</v>
+      <c r="V313" s="1">
+        <v>0</v>
+      </c>
+      <c r="W313" s="1">
+        <v>0</v>
+      </c>
+      <c r="X313" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y313" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF313" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG313" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J288:U288"/>
+    <mergeCell ref="V288:AG288"/>
+    <mergeCell ref="J287:AG287"/>
+    <mergeCell ref="H290:H301"/>
+    <mergeCell ref="H302:H313"/>
+    <mergeCell ref="G290:G313"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/Pop*/manuscripts/IdentifyKeyFromMelody/results.xlsx
+++ b/Pop*/manuscripts/IdentifyKeyFromMelody/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/norkish/git/pop-star/Pop*/manuscripts/IdentifyKeyFromMelody/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9061494-C8B1-384E-B94E-623154D9E98F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A424123-061E-C04C-A979-64D5907A0462}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1924,6 +1924,236 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Major</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$16:$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eb</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F#</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G#</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.20911220115780599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8781209951831701E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15146493437624201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5288788722435796E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16739581952362001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.80613372221485E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5067833311237798E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.116266737372398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2423438950019796E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22782712448627801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2537451942198001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4461973573732798E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D62-7C4B-8019-AED76B2D8136}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2119543688"/>
+        <c:axId val="-2119514424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2119543688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119514424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119514424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119543688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2242,6 +2472,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCA14C3-0579-2A46-BF31-E4A469A7B7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2613,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T18"/>
+  <dimension ref="C2:AB42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2991,6 +3259,80 @@
         <v>2.2537451942198001E-3</v>
       </c>
       <c r="S18">
+        <v>7.4461973573732798E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:28" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>0.20911220115780599</v>
+      </c>
+      <c r="F42">
+        <v>1.8781209951831701E-3</v>
+      </c>
+      <c r="G42">
+        <v>0.15146493437624201</v>
+      </c>
+      <c r="H42">
+        <v>8.5288788722435796E-3</v>
+      </c>
+      <c r="I42">
+        <v>0.16739581952362001</v>
+      </c>
+      <c r="J42">
+        <v>2.80613372221485E-2</v>
+      </c>
+      <c r="K42">
+        <v>8.5067833311237798E-3</v>
+      </c>
+      <c r="L42">
+        <v>0.116266737372398</v>
+      </c>
+      <c r="M42">
+        <v>4.2423438950019796E-3</v>
+      </c>
+      <c r="N42">
+        <v>0.22782712448627801</v>
+      </c>
+      <c r="O42">
+        <v>2.2537451942198001E-3</v>
+      </c>
+      <c r="P42">
+        <v>7.4461973573732798E-2</v>
+      </c>
+      <c r="Q42">
+        <v>0.20911220115780599</v>
+      </c>
+      <c r="R42">
+        <v>1.8781209951831701E-3</v>
+      </c>
+      <c r="S42">
+        <v>0.15146493437624201</v>
+      </c>
+      <c r="T42">
+        <v>8.5288788722435796E-3</v>
+      </c>
+      <c r="U42">
+        <v>0.16739581952362001</v>
+      </c>
+      <c r="V42">
+        <v>2.80613372221485E-2</v>
+      </c>
+      <c r="W42">
+        <v>8.5067833311237798E-3</v>
+      </c>
+      <c r="X42">
+        <v>0.116266737372398</v>
+      </c>
+      <c r="Y42">
+        <v>4.2423438950019796E-3</v>
+      </c>
+      <c r="Z42">
+        <v>0.22782712448627801</v>
+      </c>
+      <c r="AA42">
+        <v>2.2537451942198001E-3</v>
+      </c>
+      <c r="AB42">
         <v>7.4461973573732798E-2</v>
       </c>
     </row>
@@ -3010,7 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AG313"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D286" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="D286" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
@@ -7449,12 +7791,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G290:G313"/>
     <mergeCell ref="J288:U288"/>
     <mergeCell ref="V288:AG288"/>
     <mergeCell ref="J287:AG287"/>
     <mergeCell ref="H290:H301"/>
     <mergeCell ref="H302:H313"/>
-    <mergeCell ref="G290:G313"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
